--- a/tabular/contributed/180602 VOX TABLE.xlsx
+++ b/tabular/contributed/180602 VOX TABLE.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshsinger/gitrepos_ssh/PHE-HCV-DRUG-RESISTANCE/tabular/contributed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-21105" yWindow="2775" windowWidth="19440" windowHeight="11700"/>
+    <workbookView xWindow="17860" yWindow="7160" windowWidth="28560" windowHeight="17740"/>
   </bookViews>
   <sheets>
     <sheet name="VOX" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -428,15 +436,6 @@
     <t>Pooled3</t>
   </si>
   <si>
-    <t>Baseline RAS</t>
-  </si>
-  <si>
-    <t>Rx emergent RAS</t>
-  </si>
-  <si>
-    <t>RAS context</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -450,6 +449,15 @@
   </si>
   <si>
     <t>SOF/VEL/VOX</t>
+  </si>
+  <si>
+    <t>baselineRas</t>
+  </si>
+  <si>
+    <t>rxEmergentRas</t>
+  </si>
+  <si>
+    <t>rasContext</t>
   </si>
 </sst>
 </file>
@@ -901,30 +909,30 @@
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M118" sqref="M118"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="5" customWidth="1"/>
     <col min="2" max="2" width="7" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="13.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="5" customWidth="1"/>
+    <col min="4" max="6" width="13.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="5" customWidth="1"/>
     <col min="11" max="11" width="15" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="35.28515625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="5"/>
+    <col min="12" max="12" width="11.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="35.33203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -935,13 +943,13 @@
         <v>118</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>119</v>
@@ -971,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -982,13 +990,13 @@
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>110</v>
@@ -1000,23 +1008,23 @@
         <v>16</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1027,13 +1035,13 @@
         <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>110</v>
@@ -1045,23 +1053,23 @@
         <v>6.2</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1072,13 +1080,13 @@
         <v>80</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>110</v>
@@ -1090,23 +1098,23 @@
         <v>5.2</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1117,13 +1125,13 @@
         <v>68</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>110</v>
@@ -1135,23 +1143,23 @@
         <v>16</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1162,13 +1170,13 @@
         <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>110</v>
@@ -1180,23 +1188,23 @@
         <v>16</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1207,13 +1215,13 @@
         <v>86</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>110</v>
@@ -1225,23 +1233,23 @@
         <v>10.7</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1252,13 +1260,13 @@
         <v>98</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>110</v>
@@ -1270,23 +1278,23 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1297,13 +1305,13 @@
         <v>62</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>110</v>
@@ -1315,23 +1323,23 @@
         <v>25</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1342,13 +1350,13 @@
         <v>99</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>110</v>
@@ -1360,23 +1368,23 @@
         <v>56</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -1387,13 +1395,13 @@
         <v>99</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>110</v>
@@ -1405,23 +1413,23 @@
         <v>95.9</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1432,13 +1440,13 @@
         <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>110</v>
@@ -1450,23 +1458,23 @@
         <v>29</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1477,13 +1485,13 @@
         <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>110</v>
@@ -1495,23 +1503,23 @@
         <v>29</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1522,13 +1530,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>110</v>
@@ -1540,23 +1548,23 @@
         <v>29</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
@@ -1567,13 +1575,13 @@
         <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>110</v>
@@ -1585,23 +1593,23 @@
         <v>16</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -1612,13 +1620,13 @@
         <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>110</v>
@@ -1630,23 +1638,23 @@
         <v>25</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
@@ -1657,13 +1665,13 @@
         <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>110</v>
@@ -1675,23 +1683,23 @@
         <v>29</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
@@ -1702,13 +1710,13 @@
         <v>38</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>110</v>
@@ -1720,23 +1728,23 @@
         <v>29</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -1747,13 +1755,13 @@
         <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>110</v>
@@ -1765,23 +1773,23 @@
         <v>581</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -1792,13 +1800,13 @@
         <v>38</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>110</v>
@@ -1810,23 +1818,23 @@
         <v>552.79999999999995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
@@ -1837,13 +1845,13 @@
         <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>110</v>
@@ -1855,23 +1863,23 @@
         <v>29</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
@@ -1882,13 +1890,13 @@
         <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>110</v>
@@ -1900,23 +1908,23 @@
         <v>29</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
@@ -1927,13 +1935,13 @@
         <v>39</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>110</v>
@@ -1945,23 +1953,23 @@
         <v>29</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -1972,13 +1980,13 @@
         <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>110</v>
@@ -1990,23 +1998,23 @@
         <v>458.2</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -2017,13 +2025,13 @@
         <v>45</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>110</v>
@@ -2035,23 +2043,23 @@
         <v>16</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2062,13 +2070,13 @@
         <v>45</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>110</v>
@@ -2080,23 +2088,23 @@
         <v>16</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>2</v>
       </c>
@@ -2107,13 +2115,13 @@
         <v>45</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>110</v>
@@ -2125,23 +2133,23 @@
         <v>3.4</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
@@ -2152,13 +2160,13 @@
         <v>72</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>110</v>
@@ -2170,23 +2178,23 @@
         <v>16</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>2</v>
       </c>
@@ -2197,13 +2205,13 @@
         <v>55</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>110</v>
@@ -2215,23 +2223,23 @@
         <v>16</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
@@ -2242,13 +2250,13 @@
         <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>110</v>
@@ -2260,23 +2268,23 @@
         <v>16</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
@@ -2287,13 +2295,13 @@
         <v>43</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>110</v>
@@ -2302,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>134</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>103</v>
@@ -2321,7 +2329,7 @@
       </c>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -2332,13 +2340,13 @@
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>110</v>
@@ -2350,23 +2358,23 @@
         <v>16</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N32" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2377,13 +2385,13 @@
         <v>47</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>110</v>
@@ -2395,23 +2403,23 @@
         <v>16</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N33" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>2</v>
       </c>
@@ -2422,13 +2430,13 @@
         <v>47</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>110</v>
@@ -2440,23 +2448,23 @@
         <v>16</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>2</v>
       </c>
@@ -2467,13 +2475,13 @@
         <v>73</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>110</v>
@@ -2485,23 +2493,23 @@
         <v>25</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N35" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -2512,13 +2520,13 @@
         <v>20</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>110</v>
@@ -2530,23 +2538,23 @@
         <v>16</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N36" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>2</v>
       </c>
@@ -2557,13 +2565,13 @@
         <v>24</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>110</v>
@@ -2575,23 +2583,23 @@
         <v>25</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>2</v>
       </c>
@@ -2602,13 +2610,13 @@
         <v>24</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>110</v>
@@ -2620,23 +2628,23 @@
         <v>16</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>2</v>
       </c>
@@ -2647,13 +2655,13 @@
         <v>26</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>110</v>
@@ -2665,23 +2673,23 @@
         <v>25</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>2</v>
       </c>
@@ -2692,13 +2700,13 @@
         <v>27</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>110</v>
@@ -2710,23 +2718,23 @@
         <v>25</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N40" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O40" s="9"/>
     </row>
-    <row r="41" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -2737,13 +2745,13 @@
         <v>27</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>110</v>
@@ -2755,23 +2763,23 @@
         <v>16</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N41" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
@@ -2782,13 +2790,13 @@
         <v>21</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>110</v>
@@ -2800,23 +2808,23 @@
         <v>16</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O42" s="9"/>
     </row>
-    <row r="43" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
@@ -2827,13 +2835,13 @@
         <v>21</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>110</v>
@@ -2845,23 +2853,23 @@
         <v>16</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N43" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>2</v>
       </c>
@@ -2872,13 +2880,13 @@
         <v>44</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>110</v>
@@ -2890,23 +2898,23 @@
         <v>16</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O44" s="9"/>
     </row>
-    <row r="45" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
@@ -2917,13 +2925,13 @@
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>110</v>
@@ -2935,23 +2943,23 @@
         <v>4.2</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>2</v>
       </c>
@@ -2962,13 +2970,13 @@
         <v>44</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>110</v>
@@ -2980,23 +2988,23 @@
         <v>2.6</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O46" s="9"/>
     </row>
-    <row r="47" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>2</v>
       </c>
@@ -3007,13 +3015,13 @@
         <v>35</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>110</v>
@@ -3025,23 +3033,23 @@
         <v>16</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>2</v>
       </c>
@@ -3052,13 +3060,13 @@
         <v>35</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>110</v>
@@ -3070,23 +3078,23 @@
         <v>16</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O48" s="9"/>
     </row>
-    <row r="49" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>2</v>
       </c>
@@ -3097,13 +3105,13 @@
         <v>71</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>110</v>
@@ -3115,23 +3123,23 @@
         <v>16</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3142,13 +3150,13 @@
         <v>33</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>110</v>
@@ -3160,23 +3168,23 @@
         <v>5.7</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>2</v>
       </c>
@@ -3187,13 +3195,13 @@
         <v>41</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>110</v>
@@ -3205,23 +3213,23 @@
         <v>16</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>2</v>
       </c>
@@ -3232,13 +3240,13 @@
         <v>30</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>110</v>
@@ -3250,23 +3258,23 @@
         <v>2</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O52" s="9"/>
     </row>
-    <row r="53" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>2</v>
       </c>
@@ -3277,13 +3285,13 @@
         <v>30</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>110</v>
@@ -3295,23 +3303,23 @@
         <v>4.3</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O53" s="9"/>
     </row>
-    <row r="54" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>2</v>
       </c>
@@ -3322,13 +3330,13 @@
         <v>69</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>110</v>
@@ -3340,23 +3348,23 @@
         <v>16</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N54" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O54" s="9"/>
     </row>
-    <row r="55" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>2</v>
       </c>
@@ -3367,13 +3375,13 @@
         <v>70</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>110</v>
@@ -3385,23 +3393,23 @@
         <v>16</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N55" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O55" s="9"/>
     </row>
-    <row r="56" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>2</v>
       </c>
@@ -3412,13 +3420,13 @@
         <v>22</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>110</v>
@@ -3430,23 +3438,23 @@
         <v>16</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O56" s="9"/>
     </row>
-    <row r="57" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>2</v>
       </c>
@@ -3457,13 +3465,13 @@
         <v>96</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>110</v>
@@ -3475,23 +3483,23 @@
         <v>2.1</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O57" s="9"/>
     </row>
-    <row r="58" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>2</v>
       </c>
@@ -3502,13 +3510,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>110</v>
@@ -3520,23 +3528,23 @@
         <v>16</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O58" s="9"/>
     </row>
-    <row r="59" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>2</v>
       </c>
@@ -3547,13 +3555,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>110</v>
@@ -3562,13 +3570,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>132</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>5</v>
@@ -3581,7 +3589,7 @@
       </c>
       <c r="O59" s="9"/>
     </row>
-    <row r="60" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>2</v>
       </c>
@@ -3592,13 +3600,13 @@
         <v>3</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>110</v>
@@ -3610,23 +3618,23 @@
         <v>3.8</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O60" s="9"/>
     </row>
-    <row r="61" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>2</v>
       </c>
@@ -3637,13 +3645,13 @@
         <v>100</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>110</v>
@@ -3655,23 +3663,23 @@
         <v>3.4</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O61" s="9"/>
     </row>
-    <row r="62" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>2</v>
       </c>
@@ -3682,13 +3690,13 @@
         <v>50</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>110</v>
@@ -3700,23 +3708,23 @@
         <v>16</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O62" s="9"/>
     </row>
-    <row r="63" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>2</v>
       </c>
@@ -3727,13 +3735,13 @@
         <v>77</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>110</v>
@@ -3745,23 +3753,23 @@
         <v>3.6</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O63" s="9"/>
     </row>
-    <row r="64" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
@@ -3772,13 +3780,13 @@
         <v>64</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>110</v>
@@ -3790,23 +3798,23 @@
         <v>16</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N64" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O64" s="9"/>
     </row>
-    <row r="65" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>2</v>
       </c>
@@ -3817,13 +3825,13 @@
         <v>56</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>110</v>
@@ -3835,23 +3843,23 @@
         <v>16</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O65" s="9"/>
     </row>
-    <row r="66" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>2</v>
       </c>
@@ -3862,13 +3870,13 @@
         <v>93</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>110</v>
@@ -3880,23 +3888,23 @@
         <v>16</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N66" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>2</v>
       </c>
@@ -3907,13 +3915,13 @@
         <v>52</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>110</v>
@@ -3925,23 +3933,23 @@
         <v>16</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N67" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>2</v>
       </c>
@@ -3952,13 +3960,13 @@
         <v>75</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>110</v>
@@ -3970,23 +3978,23 @@
         <v>2</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N68" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>2</v>
       </c>
@@ -3997,13 +4005,13 @@
         <v>40</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>110</v>
@@ -4015,23 +4023,23 @@
         <v>16</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>2</v>
       </c>
@@ -4042,13 +4050,13 @@
         <v>40</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>110</v>
@@ -4060,23 +4068,23 @@
         <v>16</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>2</v>
       </c>
@@ -4087,13 +4095,13 @@
         <v>115</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>110</v>
@@ -4105,23 +4113,23 @@
         <v>232.7</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>2</v>
       </c>
@@ -4132,13 +4140,13 @@
         <v>58</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>110</v>
@@ -4150,23 +4158,23 @@
         <v>2.8</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N72" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>2</v>
       </c>
@@ -4177,13 +4185,13 @@
         <v>23</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>110</v>
@@ -4195,23 +4203,23 @@
         <v>16</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N73" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O73" s="9"/>
     </row>
-    <row r="74" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>2</v>
       </c>
@@ -4222,13 +4230,13 @@
         <v>23</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>110</v>
@@ -4240,23 +4248,23 @@
         <v>16</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N74" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O74" s="9"/>
     </row>
-    <row r="75" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>2</v>
       </c>
@@ -4267,13 +4275,13 @@
         <v>23</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>110</v>
@@ -4285,23 +4293,23 @@
         <v>16</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N75" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O75" s="9"/>
     </row>
-    <row r="76" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>2</v>
       </c>
@@ -4312,13 +4320,13 @@
         <v>23</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>110</v>
@@ -4330,23 +4338,23 @@
         <v>2.5</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L76" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N76" s="6" t="s">
         <v>131</v>
       </c>
       <c r="O76" s="9"/>
     </row>
-    <row r="77" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>2</v>
       </c>
@@ -4357,13 +4365,13 @@
         <v>63</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>110</v>
@@ -4375,23 +4383,23 @@
         <v>29</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N77" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O77" s="9"/>
     </row>
-    <row r="78" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>2</v>
       </c>
@@ -4402,13 +4410,13 @@
         <v>61</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>110</v>
@@ -4420,23 +4428,23 @@
         <v>25</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N78" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O78" s="9"/>
     </row>
-    <row r="79" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>2</v>
       </c>
@@ -4447,13 +4455,13 @@
         <v>61</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>110</v>
@@ -4465,23 +4473,23 @@
         <v>25</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N79" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O79" s="9"/>
     </row>
-    <row r="80" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>2</v>
       </c>
@@ -4492,13 +4500,13 @@
         <v>61</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>110</v>
@@ -4510,23 +4518,23 @@
         <v>16</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N80" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O80" s="9"/>
     </row>
-    <row r="81" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -4537,13 +4545,13 @@
         <v>57</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>110</v>
@@ -4555,23 +4563,23 @@
         <v>16</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O81" s="9"/>
     </row>
-    <row r="82" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>2</v>
       </c>
@@ -4582,13 +4590,13 @@
         <v>53</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>110</v>
@@ -4600,23 +4608,23 @@
         <v>16</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N82" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O82" s="9"/>
     </row>
-    <row r="83" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>2</v>
       </c>
@@ -4627,13 +4635,13 @@
         <v>53</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>110</v>
@@ -4645,23 +4653,23 @@
         <v>25</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N83" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O83" s="9"/>
     </row>
-    <row r="84" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>2</v>
       </c>
@@ -4672,13 +4680,13 @@
         <v>65</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>110</v>
@@ -4690,23 +4698,23 @@
         <v>16</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N84" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O84" s="9"/>
     </row>
-    <row r="85" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>2</v>
       </c>
@@ -4717,13 +4725,13 @@
         <v>66</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>110</v>
@@ -4735,23 +4743,23 @@
         <v>16</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N85" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O85" s="9"/>
     </row>
-    <row r="86" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -4762,13 +4770,13 @@
         <v>76</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>110</v>
@@ -4780,23 +4788,23 @@
         <v>3.4</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N86" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O86" s="9"/>
     </row>
-    <row r="87" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>2</v>
       </c>
@@ -4807,13 +4815,13 @@
         <v>97</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>110</v>
@@ -4825,23 +4833,23 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N87" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O87" s="9"/>
     </row>
-    <row r="88" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>2</v>
       </c>
@@ -4852,13 +4860,13 @@
         <v>36</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>110</v>
@@ -4870,23 +4878,23 @@
         <v>16</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O88" s="9"/>
     </row>
-    <row r="89" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -4897,13 +4905,13 @@
         <v>101</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>110</v>
@@ -4915,23 +4923,23 @@
         <v>2.4</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N89" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O89" s="9"/>
     </row>
-    <row r="90" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>2</v>
       </c>
@@ -4942,13 +4950,13 @@
         <v>102</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>110</v>
@@ -4960,23 +4968,23 @@
         <v>2.5</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N90" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O90" s="9"/>
     </row>
-    <row r="91" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
@@ -4987,13 +4995,13 @@
         <v>85</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>110</v>
@@ -5005,23 +5013,23 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N91" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O91" s="9"/>
     </row>
-    <row r="92" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>2</v>
       </c>
@@ -5032,13 +5040,13 @@
         <v>94</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>110</v>
@@ -5050,23 +5058,23 @@
         <v>16</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N92" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O92" s="9"/>
     </row>
-    <row r="93" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>2</v>
       </c>
@@ -5077,13 +5085,13 @@
         <v>81</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>110</v>
@@ -5095,23 +5103,23 @@
         <v>5.9</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N93" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O93" s="9"/>
     </row>
-    <row r="94" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>2</v>
       </c>
@@ -5122,13 +5130,13 @@
         <v>78</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>110</v>
@@ -5140,23 +5148,23 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N94" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O94" s="9"/>
     </row>
-    <row r="95" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>2</v>
       </c>
@@ -5167,13 +5175,13 @@
         <v>83</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>110</v>
@@ -5185,23 +5193,23 @@
         <v>7</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N95" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O95" s="9"/>
     </row>
-    <row r="96" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>2</v>
       </c>
@@ -5212,13 +5220,13 @@
         <v>54</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>110</v>
@@ -5230,23 +5238,23 @@
         <v>16</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N96" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O96" s="9"/>
     </row>
-    <row r="97" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>2</v>
       </c>
@@ -5257,13 +5265,13 @@
         <v>88</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>110</v>
@@ -5275,23 +5283,23 @@
         <v>11.1</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N97" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O97" s="9"/>
     </row>
-    <row r="98" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
@@ -5302,13 +5310,13 @@
         <v>108</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>110</v>
@@ -5317,13 +5325,13 @@
         <v>1</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>134</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>103</v>
@@ -5336,7 +5344,7 @@
       </c>
       <c r="O98" s="9"/>
     </row>
-    <row r="99" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>2</v>
       </c>
@@ -5347,13 +5355,13 @@
         <v>92</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>110</v>
@@ -5365,23 +5373,23 @@
         <v>2</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O99" s="9"/>
     </row>
-    <row r="100" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>2</v>
       </c>
@@ -5392,13 +5400,13 @@
         <v>79</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>110</v>
@@ -5410,23 +5418,23 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N100" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O100" s="9"/>
     </row>
-    <row r="101" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>2</v>
       </c>
@@ -5437,13 +5445,13 @@
         <v>91</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>110</v>
@@ -5455,23 +5463,23 @@
         <v>3.4</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L101" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O101" s="9"/>
     </row>
-    <row r="102" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>2</v>
       </c>
@@ -5482,13 +5490,13 @@
         <v>90</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>110</v>
@@ -5500,23 +5508,23 @@
         <v>3.3</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N102" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O102" s="9"/>
     </row>
-    <row r="103" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>2</v>
       </c>
@@ -5527,13 +5535,13 @@
         <v>49</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>110</v>
@@ -5545,16 +5553,16 @@
         <v>16</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N103" s="7" t="s">
         <v>129</v>
@@ -5562,7 +5570,7 @@
       <c r="O103" s="9"/>
       <c r="P103" s="11"/>
     </row>
-    <row r="104" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>2</v>
       </c>
@@ -5573,13 +5581,13 @@
         <v>74</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>110</v>
@@ -5591,16 +5599,16 @@
         <v>25</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M104" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N104" s="7" t="s">
         <v>129</v>
@@ -5608,7 +5616,7 @@
       <c r="O104" s="9"/>
       <c r="P104" s="11"/>
     </row>
-    <row r="105" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>2</v>
       </c>
@@ -5619,13 +5627,13 @@
         <v>67</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>110</v>
@@ -5637,16 +5645,16 @@
         <v>29</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N105" s="7" t="s">
         <v>129</v>
@@ -5654,7 +5662,7 @@
       <c r="O105" s="9"/>
       <c r="P105" s="11"/>
     </row>
-    <row r="106" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>2</v>
       </c>
@@ -5665,13 +5673,13 @@
         <v>12</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>110</v>
@@ -5680,13 +5688,13 @@
         <v>1</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>133</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L106" s="6" t="s">
         <v>13</v>
@@ -5699,7 +5707,7 @@
       </c>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>2</v>
       </c>
@@ -5710,13 +5718,13 @@
         <v>12</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>110</v>
@@ -5728,23 +5736,23 @@
         <v>16</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N107" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O107" s="9"/>
     </row>
-    <row r="108" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>2</v>
       </c>
@@ -5755,13 +5763,13 @@
         <v>12</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>110</v>
@@ -5770,13 +5778,13 @@
         <v>1</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>134</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>103</v>
@@ -5789,7 +5797,7 @@
       </c>
       <c r="O108" s="9"/>
     </row>
-    <row r="109" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>2</v>
       </c>
@@ -5800,13 +5808,13 @@
         <v>95</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>110</v>
@@ -5818,23 +5826,23 @@
         <v>16</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N109" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O109" s="9"/>
     </row>
-    <row r="110" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>2</v>
       </c>
@@ -5845,13 +5853,13 @@
         <v>59</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>110</v>
@@ -5863,23 +5871,23 @@
         <v>16</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N110" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O110" s="9"/>
     </row>
-    <row r="111" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>2</v>
       </c>
@@ -5890,13 +5898,13 @@
         <v>84</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>110</v>
@@ -5908,23 +5916,23 @@
         <v>8</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N111" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O111" s="9"/>
     </row>
-    <row r="112" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>2</v>
       </c>
@@ -5935,13 +5943,13 @@
         <v>89</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>110</v>
@@ -5953,23 +5961,23 @@
         <v>116.5</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L112" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N112" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O112" s="9"/>
     </row>
-    <row r="113" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>2</v>
       </c>
@@ -5980,13 +5988,13 @@
         <v>107</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>110</v>
@@ -5995,13 +6003,13 @@
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J113" s="6" t="s">
         <v>134</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>103</v>
@@ -6014,7 +6022,7 @@
       </c>
       <c r="O113" s="9"/>
     </row>
-    <row r="114" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>2</v>
       </c>
@@ -6025,13 +6033,13 @@
         <v>87</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>110</v>
@@ -6043,23 +6051,23 @@
         <v>10.8</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N114" s="7" t="s">
         <v>129</v>
       </c>
       <c r="O114" s="9"/>
     </row>
-    <row r="115" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>2</v>
       </c>
@@ -6070,13 +6078,13 @@
         <v>9</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E115" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>110</v>
@@ -6085,13 +6093,13 @@
         <v>1</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J115" s="7" t="s">
         <v>132</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>5</v>
@@ -6120,10 +6128,10 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -6186,7 +6194,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
